--- a/ykodama/ddbj_packages/excel/MIMS.me.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.soil.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -119,7 +119,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -197,7 +197,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -223,7 +223,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>aluminum saturation</t>
+          <t>aluminum saturation (esp. for tropical soils)</t>
         </r>
       </text>
     </comment>
@@ -418,7 +418,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage</t>
+          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
         </r>
       </text>
     </comment>
@@ -470,7 +470,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -747,6 +747,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="BF13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the direction a slope faces. While looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., NW or 315°. This measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BG13" authorId="0">
       <text>
         <r>
@@ -795,7 +808,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMS.me.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.soil.4.0.xlsx
@@ -310,6 +310,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -394,7 +397,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMS.me.soil.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.soil.4.0.xlsx
@@ -201,12 +201,753 @@
         </r>
       </text>
     </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>addition of fertilizers, pesticides, etc. - amount and time of applications</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>aluminum saturation (esp. for tropical soils)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining Al saturation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mean annual and seasonal precipitation (mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mean annual and seasonal temperature (degree Celsius)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>whether or not crop is rotated, and if yes, rotation schedule</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>present state of sample site</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>vegetation classification from one or more standard classification systems, or agricultural crop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in vegetation classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>drainage classification from a standard system such as the USDA system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unusual physical events that may have affected microbial populations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measured salinity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>soil classification from the FAO World Reference Database for Soil Resources</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>historical and/or physical evidence of fire</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>historical and/or physical evidence of flooding</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>heavy metals present and concentrations of any drug used by subject and the frequency of usage; can include multiple heavy metals and concentrations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining heavy metals</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the horizon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>link to digitized soil maps or other soil classification information</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>link to climate resource</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>soil classification based on local soil classification system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the local soil classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the part of the organic matter in the soil that constitutes living microorganisms smaller than 5-10 micrometers. IF you keep this, you would need to have correction factors used for conversion to the final units, which should be mg C (or N)/kg soil).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining microbial biomass</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining pH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>were multiple DNA extractions mixed? how many?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>previous land use and dates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining previous land use and dates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cross-sectional position in the hillslope where sample was collected, sample area position in relation to surrounding areas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining salinity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>collection design of pooled samples and/or sieve size and amount of sample sieved</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the direction a slope faces. While looking down a slope use a compass to record the direction you are facing (direction or degrees); e.g., NW or 315°. This measure provides an indication of sun and wind exposure that will influence soil temperature and evapotranspiration.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>commonly called "slope". The angle between ground surface and a horizontal line (in percent). This is the direction that overland water would flow. This measure is usually taken with a hand level meter or clinometer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>soil series name or other lower-level classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining soil series name or other lower-level classification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>explain how and for how long the soil sample was stored before DNA extraction.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining soil texture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>note method(s) used for tilling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the total N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total nitrogen content of the sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining total organic C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition for soil: total organic C content of the soil units of g C/kg soil. Definition otherwise: total organic carbon content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water content (g/g or cm3/cm3)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference or method used in determining the water content of soil</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMS: metagenome/environmental, soil; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -304,6 +1045,180 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>agrochem_addition</t>
+  </si>
+  <si>
+    <t>al_sat</t>
+  </si>
+  <si>
+    <t>al_sat_meth</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>annual_season_precpt</t>
+  </si>
+  <si>
+    <t>annual_season_temp</t>
+  </si>
+  <si>
+    <t>crop_rotation</t>
+  </si>
+  <si>
+    <t>cur_land_use</t>
+  </si>
+  <si>
+    <t>cur_vegetation</t>
+  </si>
+  <si>
+    <t>cur_vegetation_meth</t>
+  </si>
+  <si>
+    <t>drainage_class</t>
+  </si>
+  <si>
+    <t>extreme_event</t>
+  </si>
+  <si>
+    <t>extreme_salinity</t>
+  </si>
+  <si>
+    <t>fao_class</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>flooding</t>
+  </si>
+  <si>
+    <t>heavy_metals</t>
+  </si>
+  <si>
+    <t>heavy_metals_meth</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>horizon_meth</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>link_addit_analys</t>
+  </si>
+  <si>
+    <t>link_class_info</t>
+  </si>
+  <si>
+    <t>link_climate_info</t>
+  </si>
+  <si>
+    <t>local_class</t>
+  </si>
+  <si>
+    <t>local_class_meth</t>
+  </si>
+  <si>
+    <t>microbial_biomass</t>
+  </si>
+  <si>
+    <t>microbial_biomass_meth</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>ph_meth</t>
+  </si>
+  <si>
+    <t>pool_dna_extracts</t>
+  </si>
+  <si>
+    <t>previous_land_use</t>
+  </si>
+  <si>
+    <t>previous_land_use_meth</t>
+  </si>
+  <si>
+    <t>profile_position</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>salinity_meth</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>sieving</t>
+  </si>
+  <si>
+    <t>slope_aspect</t>
+  </si>
+  <si>
+    <t>slope_gradient</t>
+  </si>
+  <si>
+    <t>soil_type</t>
+  </si>
+  <si>
+    <t>soil_type_meth</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>store_cond</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>texture_meth</t>
+  </si>
+  <si>
+    <t>tillage</t>
+  </si>
+  <si>
+    <t>tot_n_meth</t>
+  </si>
+  <si>
+    <t>tot_nitro</t>
+  </si>
+  <si>
+    <t>tot_org_c_meth</t>
+  </si>
+  <si>
+    <t>tot_org_carb</t>
+  </si>
+  <si>
+    <t>water_content_soil</t>
+  </si>
+  <si>
+    <t>water_content_soil_meth</t>
   </si>
 </sst>
 </file>
@@ -721,77 +1636,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:72">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:72">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1">
+    <row r="3" spans="1:72" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1">
+    <row r="4" spans="1:72" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1">
+    <row r="5" spans="1:72" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:72">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:72">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:72">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:72">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:72">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:72">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:72">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:72">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:72">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:72">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -833,6 +1748,180 @@
       </c>
       <c r="N15" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
